--- a/autonomiczny_samochod/ExcelForm.xlsx
+++ b/autonomiczny_samochod/ExcelForm.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="stats_1" localSheetId="0">ExcelForm!$A$1:$K$253</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -9876,11 +9876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40375040"/>
-        <c:axId val="40377728"/>
+        <c:axId val="99732480"/>
+        <c:axId val="80106240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40375040"/>
+        <c:axId val="99732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9890,12 +9890,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40377728"/>
+        <c:crossAx val="80106240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40377728"/>
+        <c:axId val="80106240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9906,7 +9906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40375040"/>
+        <c:crossAx val="99732480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13793,11 +13793,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40518400"/>
-        <c:axId val="40532992"/>
+        <c:axId val="80680832"/>
+        <c:axId val="80682368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40518400"/>
+        <c:axId val="80680832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13807,12 +13807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40532992"/>
+        <c:crossAx val="80682368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40532992"/>
+        <c:axId val="80682368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13823,7 +13823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40518400"/>
+        <c:crossAx val="80680832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14355,7 +14355,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f>D3*L$1</f>
+        <f t="shared" ref="L3:L66" si="0">D3*L$1</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -14363,15 +14363,15 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">I3*$L$1</f>
+        <f t="shared" ref="N3:N66" si="1">I3*$L$1</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="1">J3*$L$1</f>
+        <f t="shared" ref="O3:O66" si="2">J3*$L$1</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>G3*P$1</f>
+        <f t="shared" ref="P3:P66" si="3">G3*P$1</f>
         <v>0</v>
       </c>
     </row>
@@ -14410,23 +14410,23 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <f>D4*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="2">H4*$L$1</f>
+        <f t="shared" ref="M4:M67" si="4">H4*$L$1</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>G4*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14465,23 +14465,23 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f>D5*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P5">
-        <f>G5*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14520,23 +14520,23 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f>D6*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P6">
-        <f>G6*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14575,23 +14575,23 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <f>D7*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P7">
-        <f>G7*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14630,23 +14630,23 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <f>D8*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P8">
-        <f>G8*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14685,23 +14685,23 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <f>D9*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P9">
-        <f>G9*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14740,23 +14740,23 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <f>D10*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P10">
-        <f>G10*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14795,23 +14795,23 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <f>D11*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P11">
-        <f>G11*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14850,23 +14850,23 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f>D12*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P12">
-        <f>G12*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14905,23 +14905,23 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <f>D13*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P13">
-        <f>G13*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,23 +14960,23 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f>D14*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P14">
-        <f>G14*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15015,23 +15015,23 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <f>D15*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P15">
-        <f>G15*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15070,23 +15070,23 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f>D16*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P16">
-        <f>G16*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15125,23 +15125,23 @@
         <v>5</v>
       </c>
       <c r="L17">
-        <f>D17*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P17">
-        <f>G17*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15180,23 +15180,23 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <f>D18*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P18">
-        <f>G18*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15235,23 +15235,23 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <f>D19*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P19">
-        <f>G19*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15290,23 +15290,23 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f>D20*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P20">
-        <f>G20*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15345,23 +15345,23 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <f>D21*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P21">
-        <f>G21*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15400,23 +15400,23 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <f>D22*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P22">
-        <f>G22*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15455,23 +15455,23 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f>D23*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P23">
-        <f>G23*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15510,23 +15510,23 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <f>D24*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P24">
-        <f>G24*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15565,23 +15565,23 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <f>D25*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P25">
-        <f>G25*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15620,23 +15620,23 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <f>D26*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P26">
-        <f>G26*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,23 +15675,23 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <f>D27*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P27">
-        <f>G27*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15730,23 +15730,23 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <f>D28*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P28">
-        <f>G28*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15785,23 +15785,23 @@
         <v>5</v>
       </c>
       <c r="L29">
-        <f>D29*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P29">
-        <f>G29*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15840,23 +15840,23 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <f>D30*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P30">
-        <f>G30*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15895,23 +15895,23 @@
         <v>5</v>
       </c>
       <c r="L31">
-        <f>D31*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P31">
-        <f>G31*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15950,23 +15950,23 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <f>D32*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P32">
-        <f>G32*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16005,23 +16005,23 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <f>D33*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P33">
-        <f>G33*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16060,23 +16060,23 @@
         <v>5</v>
       </c>
       <c r="L34">
-        <f>D34*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P34">
-        <f>G34*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16115,23 +16115,23 @@
         <v>5</v>
       </c>
       <c r="L35">
-        <f>D35*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P35">
-        <f>G35*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16170,23 +16170,23 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <f>D36*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P36">
-        <f>G36*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16225,23 +16225,23 @@
         <v>5</v>
       </c>
       <c r="L37">
-        <f>D37*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P37">
-        <f>G37*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16280,23 +16280,23 @@
         <v>5</v>
       </c>
       <c r="L38">
-        <f>D38*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P38">
-        <f>G38*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16335,23 +16335,23 @@
         <v>5</v>
       </c>
       <c r="L39">
-        <f>D39*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P39">
-        <f>G39*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16390,23 +16390,23 @@
         <v>5</v>
       </c>
       <c r="L40">
-        <f>D40*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P40">
-        <f>G40*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16445,23 +16445,23 @@
         <v>5</v>
       </c>
       <c r="L41">
-        <f>D41*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P41">
-        <f>G41*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16500,23 +16500,23 @@
         <v>5</v>
       </c>
       <c r="L42">
-        <f>D42*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P42">
-        <f>G42*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16555,23 +16555,23 @@
         <v>5</v>
       </c>
       <c r="L43">
-        <f>D43*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P43">
-        <f>G43*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16610,23 +16610,23 @@
         <v>5</v>
       </c>
       <c r="L44">
-        <f>D44*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P44">
-        <f>G44*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16665,23 +16665,23 @@
         <v>5</v>
       </c>
       <c r="L45">
-        <f>D45*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P45">
-        <f>G45*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16720,23 +16720,23 @@
         <v>5</v>
       </c>
       <c r="L46">
-        <f>D46*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P46">
-        <f>G46*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16775,23 +16775,23 @@
         <v>5</v>
       </c>
       <c r="L47">
-        <f>D47*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P47">
-        <f>G47*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16830,23 +16830,23 @@
         <v>5</v>
       </c>
       <c r="L48">
-        <f>D48*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P48">
-        <f>G48*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16885,23 +16885,23 @@
         <v>5</v>
       </c>
       <c r="L49">
-        <f>D49*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P49">
-        <f>G49*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16940,23 +16940,23 @@
         <v>5</v>
       </c>
       <c r="L50">
-        <f>D50*L$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="P50">
-        <f>G50*P$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16995,23 +16995,23 @@
         <v>5</v>
       </c>
       <c r="L51">
-        <f>D51*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M51">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P51">
-        <f>G51*P$1</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -17050,23 +17050,23 @@
         <v>5</v>
       </c>
       <c r="L52">
-        <f>D52*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M52">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="1"/>
         <v>31.2</v>
       </c>
       <c r="P52">
-        <f>G52*P$1</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -17105,23 +17105,23 @@
         <v>5</v>
       </c>
       <c r="L53">
-        <f>D53*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M53">
+        <f t="shared" si="4"/>
+        <v>76.8</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="2"/>
-        <v>76.8</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="1"/>
         <v>22.736000000000001</v>
       </c>
       <c r="P53">
-        <f>G53*P$1</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
     </row>
@@ -17160,23 +17160,23 @@
         <v>5</v>
       </c>
       <c r="L54">
-        <f>D54*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M54">
+        <f t="shared" si="4"/>
+        <v>73.628799999999998</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="2"/>
-        <v>73.628799999999998</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="1"/>
         <v>16.148479999999999</v>
       </c>
       <c r="P54">
-        <f>G54*P$1</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -17215,23 +17215,23 @@
         <v>5</v>
       </c>
       <c r="L55">
-        <f>D55*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M55">
+        <f t="shared" si="4"/>
+        <v>70.486140800000001</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="2"/>
-        <v>70.486140800000001</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="1"/>
         <v>11.0244848</v>
       </c>
       <c r="P55">
-        <f>G55*P$1</f>
+        <f t="shared" si="3"/>
         <v>57.48</v>
       </c>
     </row>
@@ -17270,23 +17270,23 @@
         <v>5</v>
       </c>
       <c r="L56">
-        <f>D56*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M56">
+        <f t="shared" si="4"/>
+        <v>67.371765532799998</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="2"/>
-        <v>67.371765532799998</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="1"/>
         <v>7.041910510400001</v>
       </c>
       <c r="P56">
-        <f>G56*P$1</f>
+        <f t="shared" si="3"/>
         <v>52.44</v>
       </c>
     </row>
@@ -17325,23 +17325,23 @@
         <v>5</v>
       </c>
       <c r="L57">
-        <f>D57*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M57">
+        <f t="shared" si="4"/>
+        <v>64.285419643004801</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="2"/>
-        <v>64.285419643004801</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="1"/>
         <v>3.9495172532143998</v>
       </c>
       <c r="P57">
-        <f>G57*P$1</f>
+        <f t="shared" si="3"/>
         <v>47.8416</v>
       </c>
     </row>
@@ -17380,23 +17380,23 @@
         <v>5</v>
       </c>
       <c r="L58">
-        <f>D58*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M58">
+        <f t="shared" si="4"/>
+        <v>61.226850866217802</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="2"/>
-        <v>61.226850866217802</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="1"/>
         <v>1.5513390691137101</v>
       </c>
       <c r="P58">
-        <f>G58*P$1</f>
+        <f t="shared" si="3"/>
         <v>43.6464</v>
       </c>
     </row>
@@ -17435,23 +17435,23 @@
         <v>5</v>
       </c>
       <c r="L59">
-        <f>D59*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M59">
+        <f t="shared" si="4"/>
+        <v>58.195809208421799</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="2"/>
-        <v>58.195809208421799</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="1"/>
         <v>-0.30547635498928599</v>
       </c>
       <c r="P59">
-        <f>G59*P$1</f>
+        <f t="shared" si="3"/>
         <v>39.819071999999998</v>
       </c>
     </row>
@@ -17490,23 +17490,23 @@
         <v>5</v>
       </c>
       <c r="L60">
-        <f>D60*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M60">
+        <f t="shared" si="4"/>
+        <v>55.192046925546002</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="2"/>
-        <v>55.192046925546002</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="1"/>
         <v>-1.7401526983295381</v>
       </c>
       <c r="P60">
-        <f>G60*P$1</f>
+        <f t="shared" si="3"/>
         <v>36.327359999999999</v>
       </c>
     </row>
@@ -17545,23 +17545,23 @@
         <v>5</v>
       </c>
       <c r="L61">
-        <f>D61*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M61">
+        <f t="shared" si="4"/>
+        <v>52.215318503216004</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="2"/>
-        <v>52.215318503216004</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="1"/>
         <v>-2.8456833158619999</v>
       </c>
       <c r="P61">
-        <f>G61*P$1</f>
+        <f t="shared" si="3"/>
         <v>33.141834240000001</v>
       </c>
     </row>
@@ -17600,23 +17600,23 @@
         <v>5</v>
       </c>
       <c r="L62">
-        <f>D62*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M62">
+        <f t="shared" si="4"/>
+        <v>49.265380636687198</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="2"/>
-        <v>49.265380636687198</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="1"/>
         <v>-3.6946019196368201</v>
       </c>
       <c r="P62">
-        <f>G62*P$1</f>
+        <f t="shared" si="3"/>
         <v>30.235645439999999</v>
       </c>
     </row>
@@ -17655,23 +17655,23 @@
         <v>5</v>
       </c>
       <c r="L63">
-        <f>D63*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M63">
+        <f t="shared" si="4"/>
+        <v>46.341992210956995</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="2"/>
-        <v>46.341992210956995</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="1"/>
         <v>-4.34348371018182</v>
       </c>
       <c r="P63">
-        <f>G63*P$1</f>
+        <f t="shared" si="3"/>
         <v>27.584298700800002</v>
       </c>
     </row>
@@ -17710,23 +17710,23 @@
         <v>5</v>
       </c>
       <c r="L64">
-        <f>D64*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M64">
+        <f t="shared" si="4"/>
+        <v>43.444914281058402</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="2"/>
-        <v>43.444914281058402</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="1"/>
         <v>-4.8364562588911202</v>
       </c>
       <c r="P64">
-        <f>G64*P$1</f>
+        <f t="shared" si="3"/>
         <v>25.165447065599999</v>
       </c>
     </row>
@@ -17765,23 +17765,23 @@
         <v>5</v>
       </c>
       <c r="L65">
-        <f>D65*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M65">
+        <f t="shared" si="4"/>
+        <v>40.573910052528802</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="2"/>
-        <v>40.573910052528802</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="1"/>
         <v>-5.2079379961998402</v>
       </c>
       <c r="P65">
-        <f>G65*P$1</f>
+        <f t="shared" si="3"/>
         <v>22.958703169536001</v>
       </c>
     </row>
@@ -17820,23 +17820,23 @@
         <v>5</v>
       </c>
       <c r="L66">
-        <f>D66*L$1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M66">
+        <f t="shared" si="4"/>
+        <v>37.728744862056004</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="2"/>
-        <v>37.728744862056004</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="1"/>
         <v>-5.4847742322722608</v>
       </c>
       <c r="P66">
-        <f>G66*P$1</f>
+        <f t="shared" si="3"/>
         <v>20.945467404287999</v>
       </c>
     </row>
@@ -17875,23 +17875,23 @@
         <v>5</v>
       </c>
       <c r="L67">
-        <f>D67*L$1</f>
+        <f t="shared" ref="L67:L130" si="5">D67*L$1</f>
         <v>20</v>
       </c>
       <c r="M67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.909186158297601</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="3">I67*$L$1</f>
+        <f t="shared" ref="N67:N130" si="6">I67*$L$1</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="4">J67*$L$1</f>
+        <f t="shared" ref="O67:O130" si="7">J67*$L$1</f>
         <v>-5.68790325305162</v>
       </c>
       <c r="P67">
-        <f>G67*P$1</f>
+        <f t="shared" ref="P67:P130" si="8">G67*P$1</f>
         <v>19.108771150725126</v>
       </c>
     </row>
@@ -17930,23 +17930,23 @@
         <v>5</v>
       </c>
       <c r="L68">
-        <f>D68*L$1</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M131" si="5">H68*$L$1</f>
+        <f t="shared" ref="M68:M131" si="9">H68*$L$1</f>
         <v>32.115003482872801</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.8336558750925995</v>
       </c>
       <c r="P68">
-        <f>G68*P$1</f>
+        <f t="shared" si="8"/>
         <v>17.433133758382073</v>
       </c>
     </row>
@@ -17985,23 +17985,23 @@
         <v>5</v>
       </c>
       <c r="L69">
-        <f>D69*L$1</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29.345968451527</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.9347690982451606</v>
       </c>
       <c r="P69">
-        <f>G69*P$1</f>
+        <f t="shared" si="8"/>
         <v>15.904432066324075</v>
       </c>
     </row>
@@ -18040,23 +18040,23 @@
         <v>5</v>
       </c>
       <c r="L70">
-        <f>D70*L$1</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26.601854735463199</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.0011767546630992</v>
       </c>
       <c r="P70">
-        <f>G70*P$1</f>
+        <f t="shared" si="8"/>
         <v>14.509781365653501</v>
       </c>
     </row>
@@ -18095,23 +18095,23 @@
         <v>5</v>
       </c>
       <c r="L71">
-        <f>D71*L$1</f>
+        <f t="shared" si="5"/>
         <v>17.84181182789732</v>
       </c>
       <c r="M71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23.8824380428442</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.0406262149468004</v>
       </c>
       <c r="P71">
-        <f>G71*P$1</f>
+        <f t="shared" si="8"/>
         <v>13.237426800347574</v>
       </c>
     </row>
@@ -18150,23 +18150,23 @@
         <v>5</v>
       </c>
       <c r="L72">
-        <f>D72*L$1</f>
+        <f t="shared" si="5"/>
         <v>15.128336681607221</v>
       </c>
       <c r="M72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21.187496100458603</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.0591594188513005</v>
       </c>
       <c r="P72">
-        <f>G72*P$1</f>
+        <f t="shared" si="8"/>
         <v>12.076644291095301</v>
       </c>
     </row>
@@ -18205,23 +18205,23 @@
         <v>5</v>
       </c>
       <c r="L73">
-        <f>D73*L$1</f>
+        <f t="shared" si="5"/>
         <v>12.973285717702961</v>
       </c>
       <c r="M73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18.862118743090821</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.8888330253878598</v>
       </c>
       <c r="P73">
-        <f>G73*P$1</f>
+        <f t="shared" si="8"/>
         <v>11.017650147067499</v>
       </c>
     </row>
@@ -18260,23 +18260,23 @@
         <v>5</v>
       </c>
       <c r="L74">
-        <f>D74*L$1</f>
+        <f t="shared" si="5"/>
         <v>11.463389576670821</v>
       </c>
       <c r="M74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16.99182580534584</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.5284362286750195</v>
       </c>
       <c r="P74">
-        <f>G74*P$1</f>
+        <f t="shared" si="8"/>
         <v>10.051518603779876</v>
       </c>
     </row>
@@ -18315,23 +18315,23 @@
         <v>5</v>
       </c>
       <c r="L75">
-        <f>D75*L$1</f>
+        <f t="shared" si="5"/>
         <v>10.416667326358461</v>
       </c>
       <c r="M75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15.48317365826526</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.0665063319068002</v>
       </c>
       <c r="P75">
-        <f>G75*P$1</f>
+        <f t="shared" si="8"/>
         <v>9.1701065920144504</v>
       </c>
     </row>
@@ -18370,23 +18370,23 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <f>D76*L$1</f>
+        <f t="shared" si="5"/>
         <v>9.6510623765903603</v>
       </c>
       <c r="M76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14.229682763073541</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.5786203864831796</v>
       </c>
       <c r="P76">
-        <f>G76*P$1</f>
+        <f t="shared" si="8"/>
         <v>8.3659851037120756</v>
       </c>
     </row>
@@ -18425,23 +18425,23 @@
         <v>5</v>
       </c>
       <c r="L77">
-        <f>D77*L$1</f>
+        <f t="shared" si="5"/>
         <v>9.0462579859891399</v>
       </c>
       <c r="M77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.154948845988519</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.1086908599993803</v>
       </c>
       <c r="P77">
-        <f>G77*P$1</f>
+        <f t="shared" si="8"/>
         <v>7.632376576350925</v>
       </c>
     </row>
@@ -18480,23 +18480,23 @@
         <v>5</v>
       </c>
       <c r="L78">
-        <f>D78*L$1</f>
+        <f t="shared" si="5"/>
         <v>8.5363231953864602</v>
       </c>
       <c r="M78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12.212384326120159</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.6760611307337001</v>
       </c>
       <c r="P78">
-        <f>G78*P$1</f>
+        <f t="shared" si="8"/>
         <v>6.9630977680539496</v>
       </c>
     </row>
@@ -18535,23 +18535,23 @@
         <v>5</v>
       </c>
       <c r="L79">
-        <f>D79*L$1</f>
+        <f t="shared" si="5"/>
         <v>8.0890875391078598</v>
       </c>
       <c r="M79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.37507158942682</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.2859840503189601</v>
       </c>
       <c r="P79">
-        <f>G79*P$1</f>
+        <f t="shared" si="8"/>
         <v>6.3525076419458752</v>
       </c>
     </row>
@@ -18590,23 +18590,23 @@
         <v>5</v>
       </c>
       <c r="L80">
-        <f>D80*L$1</f>
+        <f t="shared" si="5"/>
         <v>7.6897229968280207</v>
       </c>
       <c r="M80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10.626884233860139</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.9371612370321203</v>
       </c>
       <c r="P80">
-        <f>G80*P$1</f>
+        <f t="shared" si="8"/>
         <v>5.7954598205015753</v>
       </c>
     </row>
@@ -18645,23 +18645,23 @@
         <v>5</v>
       </c>
       <c r="L81">
-        <f>D81*L$1</f>
+        <f t="shared" si="5"/>
         <v>7.3310545224320798</v>
       </c>
       <c r="M81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.9569882694981402</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.6259337470660604</v>
       </c>
       <c r="P81">
-        <f>G81*P$1</f>
+        <f t="shared" si="8"/>
         <v>5.2872592091458754</v>
       </c>
     </row>
@@ -18700,23 +18700,23 @@
         <v>5</v>
       </c>
       <c r="L82">
-        <f>D82*L$1</f>
+        <f t="shared" si="5"/>
         <v>7.0088070859096607</v>
       </c>
       <c r="M82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.3570196955801812</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.3482126096705001</v>
       </c>
       <c r="P82">
-        <f>G82*P$1</f>
+        <f t="shared" si="8"/>
         <v>4.8236224235057499</v>
       </c>
     </row>
@@ -18755,23 +18755,23 @@
         <v>5</v>
       </c>
       <c r="L83">
-        <f>D83*L$1</f>
+        <f t="shared" si="5"/>
         <v>6.7196410087631602</v>
       </c>
       <c r="M83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.8198377947308195</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.1001967859676798</v>
       </c>
       <c r="P83">
-        <f>G83*P$1</f>
+        <f t="shared" si="8"/>
         <v>4.4006416867741001</v>
       </c>
     </row>
@@ -18810,23 +18810,23 @@
         <v>5</v>
       </c>
       <c r="L84">
-        <f>D84*L$1</f>
+        <f t="shared" si="5"/>
         <v>6.460502790828861</v>
       </c>
       <c r="M84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.3390501208327006</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.8785473300038462</v>
       </c>
       <c r="P84">
-        <f>G84*P$1</f>
+        <f t="shared" si="8"/>
         <v>4.0147518928936252</v>
       </c>
     </row>
@@ -18865,23 +18865,23 @@
         <v>5</v>
       </c>
       <c r="L85">
-        <f>D85*L$1</f>
+        <f t="shared" si="5"/>
         <v>6.2284921846953001</v>
       </c>
       <c r="M85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.9088561083430999</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.6803639236477981</v>
       </c>
       <c r="P85">
-        <f>G85*P$1</f>
+        <f t="shared" si="8"/>
         <v>3.6627005579517</v>
       </c>
     </row>
@@ -18920,23 +18920,23 @@
         <v>5</v>
       </c>
       <c r="L86">
-        <f>D86*L$1</f>
+        <f t="shared" si="5"/>
         <v>6.0208820206362805</v>
       </c>
       <c r="M86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.5239959568354005</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5031139361991319</v>
       </c>
       <c r="P86">
-        <f>G86*P$1</f>
+        <f t="shared" si="8"/>
         <v>3.3415204065202002</v>
       </c>
     </row>
@@ -18975,23 +18975,23 @@
         <v>5</v>
       </c>
       <c r="L87">
-        <f>D87*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.8351550168559196</v>
       </c>
       <c r="M87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1797212436726401</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.344566226816708</v>
       </c>
       <c r="P87">
-        <f>G87*P$1</f>
+        <f t="shared" si="8"/>
         <v>3.048504361884075</v>
       </c>
     </row>
@@ -19030,23 +19030,23 @@
         <v>5</v>
       </c>
       <c r="L88">
-        <f>D88*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.6690216650133198</v>
       </c>
       <c r="M88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.8717626291777805</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.202740964164458</v>
       </c>
       <c r="P88">
-        <f>G88*P$1</f>
+        <f t="shared" si="8"/>
         <v>2.7811827293624498</v>
       </c>
     </row>
@@ -19085,23 +19085,23 @@
         <v>5</v>
       </c>
       <c r="L89">
-        <f>D89*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.5204186775901807</v>
       </c>
       <c r="M89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.5962919628182402</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0758732852280499</v>
       </c>
       <c r="P89">
-        <f>G89*P$1</f>
+        <f t="shared" si="8"/>
         <v>2.5373023804117252</v>
       </c>
     </row>
@@ -19140,23 +19140,23 @@
         <v>5</v>
       </c>
       <c r="L90">
-        <f>D90*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.3874956592391001</v>
       </c>
       <c r="M90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.3498818687507406</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.96238620951163201</v>
       </c>
       <c r="P90">
-        <f>G90*P$1</f>
+        <f t="shared" si="8"/>
         <v>2.3148077620627374</v>
       </c>
     </row>
@@ -19195,23 +19195,23 @@
         <v>5</v>
       </c>
       <c r="L91">
-        <f>D91*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.2685967374818805</v>
       </c>
       <c r="M91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.1294659435175598</v>
       </c>
       <c r="N91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.86086920603566397</v>
       </c>
       <c r="P91">
-        <f>G91*P$1</f>
+        <f t="shared" si="8"/>
         <v>2.1118235716297926</v>
       </c>
     </row>
@@ -19250,23 +19250,23 @@
         <v>5</v>
       </c>
       <c r="L92">
-        <f>D92*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.1622412143548608</v>
       </c>
       <c r="M92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.9323014445476394</v>
       </c>
       <c r="N92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.77006023019277392</v>
       </c>
       <c r="P92">
-        <f>G92*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.926638950664775</v>
       </c>
     </row>
@@ -19305,23 +19305,23 @@
         <v>5</v>
       </c>
       <c r="L93">
-        <f>D93*L$1</f>
+        <f t="shared" si="5"/>
         <v>5.0671051785002197</v>
       </c>
       <c r="M93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.7559352535496</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.6888300750493801</v>
       </c>
       <c r="P93">
-        <f>G93*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.7576930649343925</v>
       </c>
     </row>
@@ -19360,23 +19360,23 @@
         <v>5</v>
       </c>
       <c r="L94">
-        <f>D94*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.9820047776429996</v>
       </c>
       <c r="M94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.5981732419708807</v>
       </c>
       <c r="N94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.61616846432787808</v>
       </c>
       <c r="P94">
-        <f>G94*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.6035619488812174</v>
       </c>
     </row>
@@ -19415,23 +19415,23 @@
         <v>5</v>
       </c>
       <c r="L95">
-        <f>D95*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.9058812581884803</v>
       </c>
       <c r="M95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.4570528542331003</v>
       </c>
       <c r="N95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.55117159604462995</v>
       </c>
       <c r="P95">
-        <f>G95*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.4629465036864624</v>
       </c>
     </row>
@@ -19470,23 +19470,23 @@
         <v>5</v>
       </c>
       <c r="L96">
-        <f>D96*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.8377876491518403</v>
       </c>
       <c r="M96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.3308186141221405</v>
       </c>
       <c r="N96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.49303096497029997</v>
       </c>
       <c r="P96">
-        <f>G96*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.3346615477759649</v>
       </c>
     </row>
@@ -19525,23 +19525,23 @@
         <v>5</v>
       </c>
       <c r="L97">
-        <f>D97*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.7768769081894202</v>
       </c>
       <c r="M97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.2179002452848797</v>
       </c>
       <c r="N97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.44102333709546204</v>
       </c>
       <c r="P97">
-        <f>G97*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.2176258274810425</v>
       </c>
     </row>
@@ -19580,23 +19580,23 @@
         <v>5</v>
       </c>
       <c r="L98">
-        <f>D98*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.72239135324262</v>
       </c>
       <c r="M98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.11689311921302</v>
       </c>
       <c r="N98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.39450176597039205</v>
       </c>
       <c r="P98">
-        <f>G98*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.1108529036589574</v>
       </c>
     </row>
@@ -19635,23 +19635,23 @@
         <v>5</v>
       </c>
       <c r="L99">
-        <f>D99*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.6736532266812798</v>
       </c>
       <c r="M99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.0265407758297798</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.352887549148518</v>
       </c>
       <c r="P99">
-        <f>G99*P$1</f>
+        <f t="shared" si="8"/>
         <v>1.01344283746048</v>
       </c>
     </row>
@@ -19690,23 +19690,23 @@
         <v>5</v>
       </c>
       <c r="L100">
-        <f>D100*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.6300562622420198</v>
       </c>
       <c r="M100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.94571929232852</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.315663030086484</v>
       </c>
       <c r="P100">
-        <f>G100*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.92457460516777246</v>
       </c>
     </row>
@@ -19745,23 +19745,23 @@
         <v>5</v>
       </c>
       <c r="L101">
-        <f>D101*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.5910581440111002</v>
       </c>
       <c r="M101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8734233024285407</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.28236515841744003</v>
       </c>
       <c r="P101">
-        <f>G101*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.84349917817094</v>
       </c>
     </row>
@@ -19800,23 +19800,23 @@
         <v>5</v>
       </c>
       <c r="L102">
-        <f>D102*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.5561737613420599</v>
       </c>
       <c r="M102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8087534907479599</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.25257972940589601</v>
       </c>
       <c r="P102">
-        <f>G102*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.76953320975752249</v>
       </c>
     </row>
@@ -19855,23 +19855,23 @@
         <v>5</v>
       </c>
       <c r="L103">
-        <f>D103*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.5249691751236005</v>
       </c>
       <c r="M103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.7509054062894602</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.22593623116585398</v>
       </c>
       <c r="P103">
-        <f>G103*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.70205327550385499</v>
       </c>
     </row>
@@ -19910,23 +19910,23 @@
         <v>5</v>
       </c>
       <c r="L104">
-        <f>D104*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.4970562202730795</v>
       </c>
       <c r="M104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.69915945581812</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.20210323554503201</v>
       </c>
       <c r="P104">
-        <f>G104*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.64049061872324753</v>
       </c>
     </row>
@@ -19965,23 +19965,23 @@
         <v>5</v>
       </c>
       <c r="L105">
-        <f>D105*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.47208767740978</v>
       </c>
       <c r="M105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.6528719526959801</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.1807842752861952</v>
       </c>
       <c r="P105">
-        <f>G105*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.58432635668292998</v>
       </c>
     </row>
@@ -20020,23 +20020,23 @@
         <v>5</v>
       </c>
       <c r="L106">
-        <f>D106*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.4497529537457998</v>
       </c>
       <c r="M106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.6114671098780198</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.1617141561322136</v>
       </c>
       <c r="P106">
-        <f>G106*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.53308710718507502</v>
       </c>
     </row>
@@ -20075,23 +20075,23 @@
         <v>5</v>
       </c>
       <c r="L107">
-        <f>D107*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.4297742195331802</v>
       </c>
       <c r="M107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.5744298775035404</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.1446556579703632</v>
       </c>
       <c r="P107">
-        <f>G107*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.48634099865044</v>
       </c>
     </row>
@@ -20130,23 +20130,23 @@
         <v>5</v>
       </c>
       <c r="L108">
-        <f>D108*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.41190295204136</v>
       </c>
       <c r="M108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.5412995360066803</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.12939658396531342</v>
       </c>
       <c r="P108">
-        <f>G108*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.44369403007564751</v>
       </c>
     </row>
@@ -20185,23 +20185,23 @@
         <v>5</v>
       </c>
       <c r="L109">
-        <f>D109*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.3959168440896796</v>
       </c>
       <c r="M109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.5116639650573198</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.11574712096762919</v>
       </c>
       <c r="P109">
-        <f>G109*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.40478675018361499</v>
       </c>
     </row>
@@ -20240,23 +20240,23 @@
         <v>5</v>
       </c>
       <c r="L110">
-        <f>D110*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.38161703868436</v>
       </c>
       <c r="M110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.4851545170451805</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.10353747836081681</v>
       </c>
       <c r="P110">
-        <f>G110*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.36929122777756501</v>
       </c>
     </row>
@@ -20295,23 +20295,23 @@
         <v>5</v>
       </c>
       <c r="L111">
-        <f>D111*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.3688256553621203</v>
       </c>
       <c r="M111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.4614414313374198</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.261577597531441E-2</v>
       </c>
       <c r="P111">
-        <f>G111*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.33690828776287501</v>
       </c>
     </row>
@@ -20350,23 +20350,23 @@
         <v>5</v>
       </c>
       <c r="L112">
-        <f>D112*L$1</f>
+        <f t="shared" si="5"/>
         <v>4.3573835774693803</v>
       </c>
       <c r="M112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.4402297322658999</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.2846154796512403E-2</v>
       </c>
       <c r="P112">
-        <f>G112*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.30736498954066499</v>
       </c>
     </row>
@@ -20405,23 +20405,23 @@
         <v>5</v>
       </c>
       <c r="L113">
-        <f>D113*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-35.578744440182398</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20.074107086965402</v>
       </c>
       <c r="P113">
-        <f>G113*P$1</f>
+        <f t="shared" si="8"/>
         <v>0.28041232651963499</v>
       </c>
     </row>
@@ -20460,23 +20460,23 @@
         <v>5</v>
       </c>
       <c r="L114">
-        <f>D114*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-35.595717112615802</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-15.66628986404978</v>
       </c>
       <c r="P114">
-        <f>G114*P$1</f>
+        <f t="shared" si="8"/>
         <v>-37.244176872643749</v>
       </c>
     </row>
@@ -20515,23 +20515,23 @@
         <v>5</v>
       </c>
       <c r="L115">
-        <f>D115*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-31.715355658602398</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10.279525366952059</v>
       </c>
       <c r="P115">
-        <f>G115*P$1</f>
+        <f t="shared" si="8"/>
         <v>-37.26660985876525</v>
       </c>
     </row>
@@ -20570,23 +20570,23 @@
         <v>5</v>
       </c>
       <c r="L116">
-        <f>D116*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-27.869917457675001</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.0953106857588795</v>
       </c>
       <c r="P116">
-        <f>G116*P$1</f>
+        <f t="shared" si="8"/>
         <v>-34.287075708953751</v>
       </c>
     </row>
@@ -20625,23 +20625,23 @@
         <v>5</v>
       </c>
       <c r="L117">
-        <f>D117*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-24.059088200555799</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.8489277063323999</v>
       </c>
       <c r="P117">
-        <f>G117*P$1</f>
+        <f t="shared" si="8"/>
         <v>-31.305746920252499</v>
       </c>
     </row>
@@ -20680,23 +20680,23 @@
         <v>5</v>
       </c>
       <c r="L118">
-        <f>D118*L$1</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="M118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-20.2825564067508</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.33389771403677004</v>
       </c>
       <c r="P118">
-        <f>G118*P$1</f>
+        <f t="shared" si="8"/>
         <v>-28.562780863536251</v>
       </c>
     </row>
@@ -20735,23 +20735,23 @@
         <v>5</v>
       </c>
       <c r="L119">
-        <f>D119*L$1</f>
+        <f t="shared" si="5"/>
         <v>-14.9291821122084</v>
       </c>
       <c r="M119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-16.5400133990901</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6108312868816961</v>
       </c>
       <c r="P119">
-        <f>G119*P$1</f>
+        <f t="shared" si="8"/>
         <v>-26.058321109916001</v>
       </c>
     </row>
@@ -20790,23 +20790,23 @@
         <v>5</v>
       </c>
       <c r="L120">
-        <f>D120*L$1</f>
+        <f t="shared" si="5"/>
         <v>-9.7202748144346405</v>
       </c>
       <c r="M120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-12.831153278498279</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.11087846406364</v>
       </c>
       <c r="P120">
-        <f>G120*P$1</f>
+        <f t="shared" si="8"/>
         <v>-23.773298640833101</v>
       </c>
     </row>
@@ -20845,23 +20845,23 @@
         <v>5</v>
       </c>
       <c r="L121">
-        <f>D121*L$1</f>
+        <f t="shared" si="5"/>
         <v>-6.1084438003389003</v>
       </c>
       <c r="M121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-9.9670037610384394</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8585599606995404</v>
       </c>
       <c r="P121">
-        <f>G121*P$1</f>
+        <f t="shared" si="8"/>
         <v>-21.688632952039825</v>
       </c>
     </row>
@@ -20900,23 +20900,23 @@
         <v>5</v>
       </c>
       <c r="L122">
-        <f>D122*L$1</f>
+        <f t="shared" si="5"/>
         <v>-3.9499064854544601</v>
       </c>
       <c r="M122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.9620567568795604</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0121502714251003</v>
       </c>
       <c r="P122">
-        <f>G122*P$1</f>
+        <f t="shared" si="8"/>
         <v>-19.786769060773175</v>
       </c>
     </row>
@@ -20955,23 +20955,23 @@
         <v>5</v>
       </c>
       <c r="L123">
-        <f>D123*L$1</f>
+        <f t="shared" si="5"/>
         <v>-2.71906526686878</v>
       </c>
       <c r="M123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.5530472380134199</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8339819711446399</v>
       </c>
       <c r="P123">
-        <f>G123*P$1</f>
+        <f t="shared" si="8"/>
         <v>-18.051678424609999</v>
       </c>
     </row>
@@ -21010,23 +21010,23 @@
         <v>5</v>
       </c>
       <c r="L124">
-        <f>D124*L$1</f>
+        <f t="shared" si="5"/>
         <v>-1.98609760629834</v>
       </c>
       <c r="M124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.50208477519858</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.51598716890024</v>
       </c>
       <c r="P124">
-        <f>G124*P$1</f>
+        <f t="shared" si="8"/>
         <v>-16.468736899748126</v>
       </c>
     </row>
@@ -21065,23 +21065,23 @@
         <v>5</v>
       </c>
       <c r="L125">
-        <f>D125*L$1</f>
+        <f t="shared" si="5"/>
         <v>-1.49276097494271</v>
       </c>
       <c r="M125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.6575155695227997</v>
       </c>
       <c r="N125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.1647545945800801</v>
       </c>
       <c r="P125">
-        <f>G125*P$1</f>
+        <f t="shared" si="8"/>
         <v>-15.02460262577935</v>
       </c>
     </row>
@@ -21120,23 +21120,23 @@
         <v>5</v>
       </c>
       <c r="L126">
-        <f>D126*L$1</f>
+        <f t="shared" si="5"/>
         <v>-1.1094671000501781</v>
       </c>
       <c r="M126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.9378223123893599</v>
       </c>
       <c r="N126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8283552123391797</v>
       </c>
       <c r="P126">
-        <f>G126*P$1</f>
+        <f t="shared" si="8"/>
         <v>-13.707103673799475</v>
       </c>
     </row>
@@ -21175,23 +21175,23 @@
         <v>5</v>
       </c>
       <c r="L127">
-        <f>D127*L$1</f>
+        <f t="shared" si="5"/>
         <v>-0.78028201156128807</v>
       </c>
       <c r="M127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.3035401555870196</v>
       </c>
       <c r="N127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.52325814402574</v>
       </c>
       <c r="P127">
-        <f>G127*P$1</f>
+        <f t="shared" si="8"/>
         <v>-12.505135463737149</v>
       </c>
     </row>
@@ -21230,23 +21230,23 @@
         <v>5</v>
       </c>
       <c r="L128">
-        <f>D128*L$1</f>
+        <f t="shared" si="5"/>
         <v>-0.48452890713448604</v>
       </c>
       <c r="M128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7362935581787005</v>
       </c>
       <c r="N128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.25176465104422</v>
       </c>
       <c r="P128">
-        <f>G128*P$1</f>
+        <f t="shared" si="8"/>
         <v>-11.408567169833175</v>
       </c>
     </row>
@@ -21285,23 +21285,23 @@
         <v>5</v>
       </c>
       <c r="L129">
-        <f>D129*L$1</f>
+        <f t="shared" si="5"/>
         <v>-0.21570948455409203</v>
       </c>
       <c r="M129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.2268217943052999</v>
       </c>
       <c r="N129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0111123097512</v>
       </c>
       <c r="P129">
-        <f>G129*P$1</f>
+        <f t="shared" si="8"/>
         <v>-10.408156332734199</v>
       </c>
     </row>
@@ -21340,23 +21340,23 @@
         <v>5</v>
       </c>
       <c r="L130">
-        <f>D130*L$1</f>
+        <f t="shared" si="5"/>
         <v>2.8194839236044801E-2</v>
       </c>
       <c r="M130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.7692557730150262</v>
       </c>
       <c r="N130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7974506122510721</v>
       </c>
       <c r="P130">
-        <f>G130*P$1</f>
+        <f t="shared" si="8"/>
         <v>-9.4954709591475499</v>
       </c>
     </row>
@@ -21395,23 +21395,23 @@
         <v>5</v>
       </c>
       <c r="L131">
-        <f>D131*L$1</f>
+        <f t="shared" ref="L131:L194" si="10">D131*L$1</f>
         <v>0.248410933769494</v>
       </c>
       <c r="M131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.3588189535292381</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="6">I131*$L$1</f>
+        <f t="shared" ref="N131:N194" si="11">I131*$L$1</f>
         <v>0</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O194" si="7">J131*$L$1</f>
+        <f t="shared" ref="O131:O194" si="12">J131*$L$1</f>
         <v>1.6072298872987321</v>
       </c>
       <c r="P131">
-        <f>G131*P$1</f>
+        <f t="shared" ref="P131:P194" si="13">G131*P$1</f>
         <v>-8.6628184525288248</v>
       </c>
     </row>
@@ -21450,23 +21450,23 @@
         <v>5</v>
       </c>
       <c r="L132">
-        <f>D132*L$1</f>
+        <f t="shared" si="10"/>
         <v>0.44639765301976803</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M195" si="8">H132*$L$1</f>
+        <f t="shared" ref="M132:M195" si="14">H132*$L$1</f>
         <v>-0.99110075722524005</v>
       </c>
       <c r="N132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.4374984102450079</v>
       </c>
       <c r="P132">
-        <f>G132*P$1</f>
+        <f t="shared" si="13"/>
         <v>-7.9031807757969998</v>
       </c>
     </row>
@@ -21505,23 +21505,23 @@
         <v>5</v>
       </c>
       <c r="L133">
-        <f>D133*L$1</f>
+        <f t="shared" si="10"/>
         <v>0.62390923888373206</v>
       </c>
       <c r="M133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.66192659981332991</v>
       </c>
       <c r="N133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.2858358386970619</v>
       </c>
       <c r="P133">
-        <f>G133*P$1</f>
+        <f t="shared" si="13"/>
         <v>-7.2101552995946996</v>
       </c>
     </row>
@@ -21560,23 +21560,23 @@
         <v>5</v>
       </c>
       <c r="L134">
-        <f>D134*L$1</f>
+        <f t="shared" si="10"/>
         <v>0.78282592674311202</v>
       </c>
       <c r="M134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.36739288489817395</v>
       </c>
       <c r="N134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1502188116412861</v>
       </c>
       <c r="P134">
-        <f>G134*P$1</f>
+        <f t="shared" si="13"/>
         <v>-6.57790083753095</v>
       </c>
     </row>
@@ -21615,23 +21615,23 @@
         <v>5</v>
       </c>
       <c r="L135">
-        <f>D135*L$1</f>
+        <f t="shared" si="10"/>
         <v>0.92499937479606209</v>
       </c>
       <c r="M135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.10391182715548559</v>
       </c>
       <c r="N135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.0289112019515481</v>
       </c>
       <c r="P135">
-        <f>G135*P$1</f>
+        <f t="shared" si="13"/>
         <v>-6.0010884135633749</v>
       </c>
     </row>
@@ -21670,23 +21670,23 @@
         <v>5</v>
       </c>
       <c r="L136">
-        <f>D136*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.0521634976149721</v>
       </c>
       <c r="M136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.13177123101001481</v>
       </c>
       <c r="N136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.92039226660495799</v>
       </c>
       <c r="P136">
-        <f>G136*P$1</f>
+        <f t="shared" si="13"/>
         <v>-5.4748563465608999</v>
       </c>
     </row>
@@ -21725,23 +21725,23 @@
         <v>5</v>
       </c>
       <c r="L137">
-        <f>D137*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.1658984373921961</v>
       </c>
       <c r="M137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34258538996355598</v>
       </c>
       <c r="N137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.82331304742863798</v>
       </c>
       <c r="P137">
-        <f>G137*P$1</f>
+        <f t="shared" si="13"/>
         <v>-4.9947692734758249</v>
       </c>
     </row>
@@ -21780,23 +21780,23 @@
         <v>5</v>
       </c>
       <c r="L138">
-        <f>D138*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.2676254247657881</v>
       </c>
       <c r="M138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.53115596183548597</v>
       </c>
       <c r="N138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.73646946293030202</v>
       </c>
       <c r="P138">
-        <f>G138*P$1</f>
+        <f t="shared" si="13"/>
         <v>-4.5567807657509496</v>
       </c>
     </row>
@@ -21835,23 +21835,23 @@
         <v>5</v>
       </c>
       <c r="L139">
-        <f>D139*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.3586159124622179</v>
       </c>
       <c r="M139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.69983180819621593</v>
       </c>
       <c r="N139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.65878410426600198</v>
       </c>
       <c r="P139">
-        <f>G139*P$1</f>
+        <f t="shared" si="13"/>
         <v>-4.1571992238728752</v>
       </c>
     </row>
@@ -21890,23 +21890,23 @@
         <v>5</v>
       </c>
       <c r="L140">
-        <f>D140*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.440005578169258</v>
       </c>
       <c r="M140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.85071325395992403</v>
       </c>
       <c r="N140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.58929232420933408</v>
       </c>
       <c r="P140">
-        <f>G140*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.7926567626128</v>
       </c>
     </row>
@@ -21945,23 +21945,23 @@
         <v>5</v>
       </c>
       <c r="L141">
-        <f>D141*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.51280881892381</v>
       </c>
       <c r="M141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.98567828868032803</v>
       </c>
       <c r="N141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.527130530243482</v>
       </c>
       <c r="P141">
-        <f>G141*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.4600808247029748</v>
       </c>
     </row>
@@ -22000,23 +22000,23 @@
         <v>5</v>
       </c>
       <c r="L142">
-        <f>D142*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.5779321066124339</v>
       </c>
       <c r="M142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.10640629157512</v>
       </c>
       <c r="N142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.471525815037314</v>
       </c>
       <c r="P142">
-        <f>G142*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.1566682836939499</v>
       </c>
     </row>
@@ -22055,23 +22055,23 @@
         <v>5</v>
       </c>
       <c r="L143">
-        <f>D143*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.6361858258262461</v>
       </c>
       <c r="M143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.214399223923136</v>
       </c>
       <c r="N143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.42178660190311201</v>
       </c>
       <c r="P143">
-        <f>G143*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.8798618177177251</v>
       </c>
     </row>
@@ -22110,23 +22110,23 @@
         <v>5</v>
       </c>
       <c r="L144">
-        <f>D144*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.688294678297616</v>
       </c>
       <c r="M144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3110004938498381</v>
       </c>
       <c r="N144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.37729418444777801</v>
       </c>
       <c r="P144">
-        <f>G144*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.6273283550222</v>
       </c>
     </row>
@@ -22165,23 +22165,23 @@
         <v>5</v>
       </c>
       <c r="L145">
-        <f>D145*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.7349068528538301</v>
       </c>
       <c r="M145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3974117572729881</v>
       </c>
       <c r="N145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.33749509558084201</v>
       </c>
       <c r="P145">
-        <f>G145*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.3969394096047827</v>
       </c>
     </row>
@@ -22220,23 +22220,23 @@
         <v>5</v>
       </c>
       <c r="L146">
-        <f>D146*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.776602150311432</v>
       </c>
       <c r="M146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.4747079029299122</v>
       </c>
       <c r="N146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.30189424738151999</v>
       </c>
       <c r="P146">
-        <f>G146*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.1867531412030048</v>
       </c>
     </row>
@@ -22275,23 +22275,23 @@
         <v>5</v>
       </c>
       <c r="L147">
-        <f>D147*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.8138992145130219</v>
       </c>
       <c r="M147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5438504353469282</v>
       </c>
       <c r="N147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.27004877916609199</v>
       </c>
       <c r="P147">
-        <f>G147*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.9949979884346274</v>
       </c>
     </row>
@@ -22330,23 +22330,23 @@
         <v>5</v>
       </c>
       <c r="L148">
-        <f>D148*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.8472619861445561</v>
       </c>
       <c r="M148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6056994373789801</v>
       </c>
       <c r="N148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.24156254876557801</v>
       </c>
       <c r="P148">
-        <f>G148*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.820057737138385</v>
       </c>
     </row>
@@ -22385,23 +22385,23 @@
         <v>5</v>
       </c>
       <c r="L149">
-        <f>D149*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.8771054715283881</v>
       </c>
       <c r="M149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6610242681204861</v>
       </c>
       <c r="N149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.21608120340790402</v>
       </c>
       <c r="P149">
-        <f>G149*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.6604578980636124</v>
       </c>
     </row>
@@ -22440,23 +22440,23 @@
         <v>5</v>
       </c>
       <c r="L150">
-        <f>D150*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.9038009024843319</v>
       </c>
       <c r="M150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.7105131319242739</v>
       </c>
       <c r="N150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.1932877705600588</v>
       </c>
       <c r="P150">
-        <f>G150*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.5148532790925451</v>
       </c>
     </row>
@@ -22495,23 +22495,23 @@
         <v>5</v>
       </c>
       <c r="L151">
-        <f>D151*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.9276803525133261</v>
       </c>
       <c r="M151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.754781638292412</v>
       </c>
       <c r="N151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.17289871422091502</v>
       </c>
       <c r="P151">
-        <f>G151*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.3820166472474551</v>
       </c>
     </row>
@@ -22550,23 +22550,23 @@
         <v>5</v>
       </c>
       <c r="L152">
-        <f>D152*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.949040866671542</v>
       </c>
       <c r="M152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.7943804591502899</v>
       </c>
       <c r="N152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.15466040752125301</v>
       </c>
       <c r="P152">
-        <f>G152*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.260828384920055</v>
       </c>
     </row>
@@ -22605,23 +22605,23 @@
         <v>5</v>
       </c>
       <c r="L153">
-        <f>D153*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.9681481562151359</v>
       </c>
       <c r="M153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8298021786158021</v>
       </c>
       <c r="N153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.1383459775993334</v>
       </c>
       <c r="P153">
-        <f>G153*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.1502670531402575</v>
       </c>
     </row>
@@ -22660,23 +22660,23 @@
         <v>5</v>
       </c>
       <c r="L154">
-        <f>D154*L$1</f>
+        <f t="shared" si="10"/>
         <v>1.9852399037308002</v>
       </c>
       <c r="M154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.861487420340814</v>
       </c>
       <c r="N154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.1237524833899858</v>
       </c>
       <c r="P154">
-        <f>G154*P$1</f>
+        <f t="shared" si="13"/>
         <v>-1.0494007823466549</v>
       </c>
     </row>
@@ -22715,23 +22715,23 @@
         <v>5</v>
       </c>
       <c r="L155">
-        <f>D155*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0005287197187598</v>
       </c>
       <c r="M155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.889830328563324</v>
       </c>
       <c r="N155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.11069839115544379</v>
       </c>
       <c r="P155">
-        <f>G155*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.95737941809543003</v>
       </c>
     </row>
@@ -22770,23 +22770,23 @@
         <v>5</v>
       </c>
       <c r="L156">
-        <f>D156*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.01420478733358</v>
       </c>
       <c r="M156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.9151834710093281</v>
       </c>
       <c r="N156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.9021316324248793E-2</v>
       </c>
       <c r="P156">
-        <f>G156*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.87342735550769746</v>
       </c>
     </row>
@@ -22825,23 +22825,23 @@
         <v>5</v>
       </c>
       <c r="L157">
-        <f>D157*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.02643822815112</v>
       </c>
       <c r="M157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.9378622246152422</v>
       </c>
       <c r="N157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.8576003535870793E-2</v>
       </c>
       <c r="P157">
-        <f>G157*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.79683700206006247</v>
       </c>
     </row>
@@ -22880,23 +22880,23 @@
         <v>5</v>
       </c>
       <c r="L158">
-        <f>D158*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0373812183808599</v>
       </c>
       <c r="M158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.958148698620334</v>
       </c>
       <c r="N158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.9232519760525602E-2</v>
       </c>
       <c r="P158">
-        <f>G158*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.72696281361944504</v>
       </c>
     </row>
@@ -22935,23 +22935,23 @@
         <v>5</v>
       </c>
       <c r="L159">
-        <f>D159*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0471698818459001</v>
       </c>
       <c r="M159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.9762952438285701</v>
       </c>
       <c r="N159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.0874638017328198E-2</v>
       </c>
       <c r="P159">
-        <f>G159*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.66321585345463996</v>
       </c>
     </row>
@@ -22990,23 +22990,23 @@
         <v>5</v>
       </c>
       <c r="L160">
-        <f>D160*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0559259832789998</v>
       </c>
       <c r="M160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.9925275916931762</v>
       </c>
       <c r="N160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.3398391585818198E-2</v>
       </c>
       <c r="P160">
-        <f>G160*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.60505882836508251</v>
       </c>
     </row>
@@ -23045,23 +23045,23 @@
         <v>5</v>
       </c>
       <c r="L161">
-        <f>D161*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0637584429992399</v>
       </c>
       <c r="M161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0070476622725999</v>
       </c>
       <c r="N161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.6710780726648001E-2</v>
       </c>
       <c r="P161">
-        <f>G161*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.55200156008871248</v>
       </c>
     </row>
@@ -23100,23 +23100,23 @@
         <v>5</v>
       </c>
       <c r="L162">
-        <f>D162*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0707646918117399</v>
       </c>
       <c r="M162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0200360759875</v>
       </c>
       <c r="N162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.0728615824239202E-2</v>
       </c>
       <c r="P162">
-        <f>G162*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.50359685381950503</v>
       </c>
     </row>
@@ -23155,23 +23155,23 @@
         <v>5</v>
       </c>
       <c r="L163">
-        <f>D163*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0770318829847598</v>
       </c>
       <c r="M163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.03165440042374</v>
       </c>
       <c r="N163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.5377482561023204E-2</v>
       </c>
       <c r="P163">
-        <f>G163*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.45943672901240251</v>
       </c>
     </row>
@@ -23210,23 +23210,23 @@
         <v>5</v>
       </c>
       <c r="L164">
-        <f>D164*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0826379763808003</v>
       </c>
       <c r="M164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0420471601300401</v>
       </c>
       <c r="N164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0590816250752601E-2</v>
       </c>
       <c r="P164">
-        <f>G164*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.41914898070684747</v>
       </c>
     </row>
@@ -23265,23 +23265,23 @@
         <v>5</v>
       </c>
       <c r="L165">
-        <f>D165*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.08765270822754</v>
       </c>
       <c r="M165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0513436344113201</v>
       </c>
       <c r="N165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.6309073816221199E-2</v>
       </c>
       <c r="P165">
-        <f>G165*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.3823940423858575</v>
       </c>
     </row>
@@ -23320,23 +23320,23 @@
         <v>5</v>
       </c>
       <c r="L166">
-        <f>D166*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0921384585920202</v>
       </c>
       <c r="M166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0596594654806801</v>
       </c>
       <c r="N166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.2478993111337798E-2</v>
       </c>
       <c r="P166">
-        <f>G166*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.34886212392930999</v>
       </c>
     </row>
@@ -23375,23 +23375,23 @@
         <v>5</v>
       </c>
       <c r="L167">
-        <f>D167*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0961510273489403</v>
       </c>
       <c r="M167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0670980969749602</v>
       </c>
       <c r="N167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.9052930373979803E-2</v>
       </c>
       <c r="P167">
-        <f>G167*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.31827060053844503</v>
       </c>
     </row>
@@ -23430,23 +23430,23 @@
         <v>5</v>
       </c>
       <c r="L168">
-        <f>D168*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.0997403282954203</v>
       </c>
       <c r="M168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0737520607274602</v>
       </c>
       <c r="N168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.59882675679548E-2</v>
       </c>
       <c r="P168">
-        <f>G168*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.29036163062409748</v>
       </c>
     </row>
@@ -23485,23 +23485,23 @@
         <v>5</v>
       </c>
       <c r="L169">
-        <f>D169*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1029510100469002</v>
       </c>
       <c r="M169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0797041278050803</v>
       </c>
       <c r="N169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.3246882241816601E-2</v>
       </c>
       <c r="P169">
-        <f>G169*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.26489998258102249</v>
       </c>
     </row>
@@ -23540,23 +23540,23 @@
         <v>5</v>
       </c>
       <c r="L170">
-        <f>D170*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1058230114374199</v>
       </c>
       <c r="M170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0850283381275601</v>
       </c>
       <c r="N170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.07946733098608E-2</v>
       </c>
       <c r="P170">
-        <f>G170*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.24167105213109599</v>
       </c>
     </row>
@@ -23595,23 +23595,23 @@
         <v>5</v>
       </c>
       <c r="L171">
-        <f>D171*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1083920583332803</v>
       </c>
       <c r="M171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0897909214769199</v>
       </c>
       <c r="N171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8601136856366281E-2</v>
       </c>
       <c r="P171">
-        <f>G171*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.220479053524616</v>
       </c>
     </row>
@@ -23650,23 +23650,23 @@
         <v>5</v>
       </c>
       <c r="L172">
-        <f>D172*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.11069010803996</v>
       </c>
       <c r="M172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0940511213536399</v>
       </c>
       <c r="N172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6638986686326941E-2</v>
       </c>
       <c r="P172">
-        <f>G172*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.2011453693541255</v>
       </c>
     </row>
@@ -23705,23 +23705,23 @@
         <v>5</v>
       </c>
       <c r="L173">
-        <f>D173*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1127457468307198</v>
       </c>
       <c r="M173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.09786193192814</v>
       </c>
       <c r="N173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.4883814902581281E-2</v>
       </c>
       <c r="P173">
-        <f>G173*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.18350704507215551</v>
       </c>
     </row>
@@ -23760,23 +23760,23 @@
         <v>5</v>
       </c>
       <c r="L174">
-        <f>D174*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1145845455415202</v>
       </c>
       <c r="M174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1012707572543801</v>
       </c>
       <c r="N174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.331378828714104E-2</v>
       </c>
       <c r="P174">
-        <f>G174*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.16741541552383049</v>
       </c>
     </row>
@@ -23815,23 +23815,23 @@
         <v>5</v>
       </c>
       <c r="L175">
-        <f>D175*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1162293776560599</v>
       </c>
       <c r="M175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.10432000094618</v>
       </c>
       <c r="N175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1909376709869799E-2</v>
       </c>
       <c r="P175">
-        <f>G175*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.152734851918055</v>
       </c>
     </row>
@@ -23870,23 +23870,23 @@
         <v>5</v>
       </c>
       <c r="L176">
-        <f>D176*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1177007038371398</v>
       </c>
       <c r="M176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.10704759365102</v>
       </c>
       <c r="N176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.0653110186117381E-2</v>
       </c>
       <c r="P176">
-        <f>G176*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.139341618676152</v>
       </c>
     </row>
@@ -23925,23 +23925,23 @@
         <v>5</v>
       </c>
       <c r="L177">
-        <f>D177*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1190168264444402</v>
       </c>
       <c r="M177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1094874648832</v>
       </c>
       <c r="N177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.5293615612550599E-3</v>
       </c>
       <c r="P177">
-        <f>G177*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.12712283052270126</v>
       </c>
     </row>
@@ -23980,23 +23980,23 @@
         <v>5</v>
       </c>
       <c r="L178">
-        <f>D178*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1201941172041403</v>
       </c>
       <c r="M178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1116699650853001</v>
       </c>
       <c r="N178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.5241521188341007E-3</v>
       </c>
       <c r="P178">
-        <f>G178*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.11597550102861125</v>
       </c>
     </row>
@@ -24035,23 +24035,23 @@
         <v>5</v>
       </c>
       <c r="L179">
-        <f>D179*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.12124722086268</v>
       </c>
       <c r="M179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.11362224316842</v>
       </c>
       <c r="N179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.6249776942510809E-3</v>
       </c>
       <c r="P179">
-        <f>G179*P$1</f>
+        <f t="shared" si="13"/>
         <v>-0.10580567458679201</v>
       </c>
     </row>
@@ -24090,23 +24090,23 @@
         <v>5</v>
       </c>
       <c r="L180">
-        <f>D180*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1221892373581803</v>
       </c>
       <c r="M180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.11536858422726</v>
       </c>
       <c r="N180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.8206531309297205E-3</v>
       </c>
       <c r="P180">
-        <f>G180*P$1</f>
+        <f t="shared" si="13"/>
         <v>-9.6527634504503995E-2</v>
       </c>
     </row>
@@ -24145,23 +24145,23 @@
         <v>5</v>
       </c>
       <c r="L181">
-        <f>D181*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1230318847752598</v>
       </c>
       <c r="M181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1169307116311797</v>
       </c>
       <c r="N181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.1011731440868402E-3</v>
       </c>
       <c r="P181">
-        <f>G181*P$1</f>
+        <f t="shared" si="13"/>
         <v>-8.8063180537561001E-2</v>
       </c>
     </row>
@@ -24200,23 +24200,23 @@
         <v>5</v>
       </c>
       <c r="L182">
-        <f>D182*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1237856451105799</v>
       </c>
       <c r="M182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1183280572491801</v>
       </c>
       <c r="N182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.4575878613932604E-3</v>
       </c>
       <c r="P182">
-        <f>G182*P$1</f>
+        <f t="shared" si="13"/>
         <v>-8.0340969777199497E-2</v>
       </c>
     </row>
@@ -24255,23 +24255,23 @@
         <v>5</v>
       </c>
       <c r="L183">
-        <f>D183*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1244598946621402</v>
       </c>
       <c r="M183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1195780031699001</v>
       </c>
       <c r="N183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.8818914922449004E-3</v>
       </c>
       <c r="P183">
-        <f>G183*P$1</f>
+        <f t="shared" si="13"/>
         <v>-7.3295915334194994E-2</v>
       </c>
     </row>
@@ -24310,23 +24310,23 @@
         <v>5</v>
       </c>
       <c r="L184">
-        <f>D184*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1250630206645202</v>
       </c>
       <c r="M184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.12069609792368</v>
       </c>
       <c r="N184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.36692274083866E-3</v>
       </c>
       <c r="P184">
-        <f>G184*P$1</f>
+        <f t="shared" si="13"/>
         <v>-6.6868637752017748E-2</v>
       </c>
     </row>
@@ -24365,23 +24365,23 @@
         <v>5</v>
       </c>
       <c r="L185">
-        <f>D185*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1256025256206401</v>
       </c>
       <c r="M185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.12169624989642</v>
       </c>
       <c r="N185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9062757242260999E-3</v>
       </c>
       <c r="P185">
-        <f>G185*P$1</f>
+        <f t="shared" si="13"/>
         <v>-6.1004964525284248E-2</v>
       </c>
     </row>
@@ -24420,23 +24420,23 @@
         <v>5</v>
       </c>
       <c r="L186">
-        <f>D186*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1260851206282401</v>
       </c>
       <c r="M186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1225909003410401</v>
       </c>
       <c r="N186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.4942202872014E-3</v>
       </c>
       <c r="P186">
-        <f>G186*P$1</f>
+        <f t="shared" si="13"/>
         <v>-5.5655473505123003E-2</v>
       </c>
     </row>
@@ -24475,23 +24475,23 @@
         <v>5</v>
       </c>
       <c r="L187">
-        <f>D187*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1265168088615001</v>
       </c>
       <c r="M187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1233911781386601</v>
       </c>
       <c r="N187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.12563072283144E-3</v>
       </c>
       <c r="P187">
-        <f>G187*P$1</f>
+        <f t="shared" si="13"/>
         <v>-5.0775076343096998E-2</v>
       </c>
     </row>
@@ -24530,23 +24530,23 @@
         <v>5</v>
       </c>
       <c r="L188">
-        <f>D188*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1269029602468201</v>
       </c>
       <c r="M188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1241070382349001</v>
       </c>
       <c r="N188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.7959220119277402E-3</v>
       </c>
       <c r="P188">
-        <f>G188*P$1</f>
+        <f t="shared" si="13"/>
         <v>-4.6322638462683502E-2</v>
       </c>
     </row>
@@ -24585,23 +24585,23 @@
         <v>5</v>
       </c>
       <c r="L189">
-        <f>D189*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1272483782612599</v>
       </c>
       <c r="M189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.12474738547294</v>
       </c>
       <c r="N189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.5009927883256999E-3</v>
       </c>
       <c r="P189">
-        <f>G189*P$1</f>
+        <f t="shared" si="13"/>
         <v>-4.2260632355240003E-2</v>
       </c>
     </row>
@@ -24640,23 +24640,23 @@
         <v>5</v>
       </c>
       <c r="L190">
-        <f>D190*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1275573596847202</v>
       </c>
       <c r="M190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1253201853641999</v>
       </c>
       <c r="N190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.2371743205193001E-3</v>
       </c>
       <c r="P190">
-        <f>G190*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.855482127822725E-2</v>
       </c>
     </row>
@@ -24695,23 +24695,23 @@
         <v>5</v>
       </c>
       <c r="L191">
-        <f>D191*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1278337480490799</v>
       </c>
       <c r="M191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1258325631741202</v>
       </c>
       <c r="N191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.0011848749638202E-3</v>
       </c>
       <c r="P191">
-        <f>G191*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.5173970689808001E-2</v>
       </c>
     </row>
@@ -24750,23 +24750,23 @@
         <v>5</v>
       </c>
       <c r="L192">
-        <f>D192*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1280809814494002</v>
       </c>
       <c r="M192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1262908925559798</v>
       </c>
       <c r="N192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.790088893410216E-3</v>
       </c>
       <c r="P192">
-        <f>G192*P$1</f>
+        <f t="shared" si="13"/>
         <v>-3.2089584987548998E-2</v>
       </c>
     </row>
@@ -24805,23 +24805,23 @@
         <v>5</v>
       </c>
       <c r="L193">
-        <f>D193*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1283021353115599</v>
       </c>
       <c r="M193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1267008748351399</v>
       </c>
       <c r="N193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6012604764315441E-3</v>
       </c>
       <c r="P193">
-        <f>G193*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.9275667332364749E-2</v>
       </c>
     </row>
@@ -24860,23 +24860,23 @@
         <v>5</v>
       </c>
       <c r="L194">
-        <f>D194*L$1</f>
+        <f t="shared" si="10"/>
         <v>2.1284999606486203</v>
       </c>
       <c r="M194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1270676099297199</v>
       </c>
       <c r="N194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.4323507189075179E-3</v>
       </c>
       <c r="P194">
-        <f>G194*P$1</f>
+        <f t="shared" si="13"/>
         <v>-2.6708500533363499E-2</v>
       </c>
     </row>
@@ -24915,23 +24915,23 @@
         <v>5</v>
       </c>
       <c r="L195">
-        <f>D195*L$1</f>
+        <f t="shared" ref="L195:L253" si="15">D195*L$1</f>
         <v>2.1286769182816401</v>
       </c>
       <c r="M195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1273956597905004</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N253" si="9">I195*$L$1</f>
+        <f t="shared" ref="N195:N253" si="16">I195*$L$1</f>
         <v>0</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O253" si="10">J195*$L$1</f>
+        <f t="shared" ref="O195:O253" si="17">J195*$L$1</f>
         <v>1.281258491141088E-3</v>
       </c>
       <c r="P195">
-        <f>G195*P$1</f>
+        <f t="shared" ref="P195:P253" si="18">G195*P$1</f>
         <v>-2.4366447146770824E-2</v>
       </c>
     </row>
@@ -24970,23 +24970,23 @@
         <v>5</v>
       </c>
       <c r="L196">
-        <f>D196*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1288352094507599</v>
       </c>
       <c r="M196">
-        <f t="shared" ref="M196:M253" si="11">H196*$L$1</f>
+        <f t="shared" ref="M196:M253" si="19">H196*$L$1</f>
         <v>2.1276891051486002</v>
       </c>
       <c r="N196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.146104302143872E-3</v>
       </c>
       <c r="P196">
-        <f>G196*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.2229767104100524E-2</v>
       </c>
     </row>
@@ -25025,23 +25025,23 @@
         <v>5</v>
       </c>
       <c r="L197">
-        <f>D197*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1289768031971801</v>
       </c>
       <c r="M197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1279515962772</v>
       </c>
       <c r="N197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.0252069199710859E-3</v>
       </c>
       <c r="P197">
-        <f>G197*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.0280451332363999E-2</v>
       </c>
     </row>
@@ -25080,23 +25080,23 @@
         <v>5</v>
       </c>
       <c r="L198">
-        <f>D198*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12910346085686</v>
       </c>
       <c r="M198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1281863983985998</v>
       </c>
       <c r="N198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.1706245827198E-4</v>
       </c>
       <c r="P198">
-        <f>G198*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.8502069964037023E-2</v>
       </c>
     </row>
@@ -25135,23 +25135,23 @@
         <v>5</v>
       </c>
       <c r="L199">
-        <f>D199*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1292167579703398</v>
       </c>
       <c r="M199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1283964323014599</v>
       </c>
       <c r="N199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.2032566888646608E-4</v>
       </c>
       <c r="P199">
-        <f>G199*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.6879633857449498E-2</v>
       </c>
     </row>
@@ -25190,23 +25190,23 @@
         <v>5</v>
       </c>
       <c r="L200">
-        <f>D200*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1293181038814799</v>
       </c>
       <c r="M200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1285843106736602</v>
       </c>
       <c r="N200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7.3379320782677006E-4</v>
       </c>
       <c r="P200">
-        <f>G200*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.5399468260328675E-2</v>
       </c>
     </row>
@@ -25245,23 +25245,23 @@
         <v>5</v>
       </c>
       <c r="L201">
-        <f>D201*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12940875926878</v>
       </c>
       <c r="M201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1287523706023403</v>
       </c>
       <c r="N201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.5638866644630606E-4</v>
       </c>
       <c r="P201">
-        <f>G201*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.4049097551733775E-2</v>
       </c>
     </row>
@@ -25300,23 +25300,23 @@
         <v>5</v>
       </c>
       <c r="L202">
-        <f>D202*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1294898518274801</v>
       </c>
       <c r="M202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1289027026458802</v>
       </c>
       <c r="N202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5.8714918159831996E-4</v>
       </c>
       <c r="P202">
-        <f>G202*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.2817140090910501E-2</v>
       </c>
     </row>
@@ -25355,23 +25355,23 @@
         <v>5</v>
       </c>
       <c r="L203">
-        <f>D203*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1295623902973002</v>
       </c>
       <c r="M203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1290371768390601</v>
       </c>
       <c r="N203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5.2521345823682399E-4</v>
       </c>
       <c r="P203">
-        <f>G203*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.1693212286774125E-2</v>
       </c>
     </row>
@@ -25410,23 +25410,23 @@
         <v>5</v>
       </c>
       <c r="L204">
-        <f>D204*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12962727701056</v>
       </c>
       <c r="M204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1291574659551</v>
       </c>
       <c r="N204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.6981105545057598E-4</v>
       </c>
       <c r="P204">
-        <f>G204*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.0667841079503575E-2</v>
       </c>
     </row>
@@ -25465,23 +25465,23 @@
         <v>5</v>
       </c>
       <c r="L205">
-        <f>D205*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1296853191166201</v>
       </c>
       <c r="M205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1292650663139403</v>
       </c>
       <c r="N205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.2025280266976803E-4</v>
       </c>
       <c r="P205">
-        <f>G205*P$1</f>
+        <f t="shared" si="18"/>
         <v>-9.7323840965613008E-3</v>
       </c>
     </row>
@@ -25520,23 +25520,23 @@
         <v>5</v>
       </c>
       <c r="L206">
-        <f>D206*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1297372386222602</v>
       </c>
       <c r="M206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1293613163954399</v>
       </c>
       <c r="N206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.75922226825648E-4</v>
       </c>
       <c r="P206">
-        <f>G206*P$1</f>
+        <f t="shared" si="18"/>
         <v>-8.8789568102010004E-3</v>
       </c>
     </row>
@@ -25575,23 +25575,23 @@
         <v>5</v>
       </c>
       <c r="L207">
-        <f>D207*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12978368137302</v>
       </c>
       <c r="M207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1294474134892201</v>
       </c>
       <c r="N207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.3626788381510602E-4</v>
       </c>
       <c r="P207">
-        <f>G207*P$1</f>
+        <f t="shared" si="18"/>
         <v>-8.1003660824752258E-3</v>
       </c>
     </row>
@@ -25630,23 +25630,23 @@
         <v>5</v>
       </c>
       <c r="L208">
-        <f>D208*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1298252250871399</v>
       </c>
       <c r="M208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.12952442858824</v>
       </c>
       <c r="N208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.0079649889177998E-4</v>
       </c>
       <c r="P208">
-        <f>G208*P$1</f>
+        <f t="shared" si="18"/>
         <v>-7.3900495376566502E-3</v>
       </c>
     </row>
@@ -25685,23 +25685,23 @@
         <v>5</v>
       </c>
       <c r="L209">
-        <f>D209*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1298623865419199</v>
       </c>
       <c r="M209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.12959331971126</v>
       </c>
       <c r="N209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.6906683064625403E-4</v>
       </c>
       <c r="P209">
-        <f>G209*P$1</f>
+        <f t="shared" si="18"/>
         <v>-6.7420202510559751E-3</v>
       </c>
     </row>
@@ -25740,23 +25740,23 @@
         <v>5</v>
       </c>
       <c r="L210">
-        <f>D210*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1298956280021599</v>
       </c>
       <c r="M210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1296549438199199</v>
       </c>
       <c r="N210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.4068418223214399E-4</v>
       </c>
       <c r="P210">
-        <f>G210*P$1</f>
+        <f t="shared" si="18"/>
         <v>-6.1508162880441501E-3</v>
       </c>
     </row>
@@ -25795,23 +25795,23 @@
         <v>5</v>
       </c>
       <c r="L211">
-        <f>D211*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12992536297044</v>
       </c>
       <c r="M211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1297100674788401</v>
       </c>
       <c r="N211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.1529549159909602E-4</v>
       </c>
       <c r="P211">
-        <f>G211*P$1</f>
+        <f t="shared" si="18"/>
         <v>-5.6114546679575496E-3</v>
       </c>
     </row>
@@ -25850,23 +25850,23 @@
         <v>5</v>
       </c>
       <c r="L212">
-        <f>D212*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.12995196133082</v>
       </c>
       <c r="M212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.12975937639118</v>
       </c>
       <c r="N212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.925849396220388E-4</v>
       </c>
       <c r="P212">
-        <f>G212*P$1</f>
+        <f t="shared" si="18"/>
         <v>-5.1193893649159501E-3</v>
       </c>
     </row>
@@ -25905,23 +25905,23 @@
         <v>5</v>
       </c>
       <c r="L213">
-        <f>D213*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1299757539499002</v>
       </c>
       <c r="M213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1298034839283999</v>
       </c>
       <c r="N213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.7227002150850421E-4</v>
       </c>
       <c r="P213">
-        <f>G213*P$1</f>
+        <f t="shared" si="18"/>
         <v>-4.6704729914815004E-3</v>
       </c>
     </row>
@@ -25960,23 +25960,23 @@
         <v>5</v>
       </c>
       <c r="L214">
-        <f>D214*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1299970367927399</v>
       </c>
       <c r="M214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1298429387601003</v>
       </c>
       <c r="N214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.5409803263181961E-4</v>
       </c>
       <c r="P214">
-        <f>G214*P$1</f>
+        <f t="shared" si="18"/>
         <v>-4.2609218422917754E-3</v>
       </c>
     </row>
@@ -26015,23 +26015,23 @@
         <v>5</v>
       </c>
       <c r="L215">
-        <f>D215*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13001607460432</v>
       </c>
       <c r="M215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1298782316792804</v>
       </c>
       <c r="N215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.378429250409692E-4</v>
       </c>
       <c r="P215">
-        <f>G215*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.8872840029746752E-3</v>
       </c>
     </row>
@@ -26070,23 +26070,23 @@
         <v>5</v>
       </c>
       <c r="L216">
-        <f>D216*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1300331042029002</v>
       </c>
       <c r="M216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1299098017073401</v>
       </c>
       <c r="N216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.233024955574382E-4</v>
       </c>
       <c r="P216">
-        <f>G216*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.5464102555904501E-3</v>
       </c>
     </row>
@@ -26125,23 +26125,23 @@
         <v>5</v>
       </c>
       <c r="L217">
-        <f>D217*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1300483374257801</v>
       </c>
       <c r="M217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1299380415552802</v>
       </c>
       <c r="N217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.102958705068908E-4</v>
       </c>
       <c r="P217">
-        <f>G217*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.2354275353530001E-3</v>
       </c>
     </row>
@@ -26180,23 +26180,23 @@
         <v>5</v>
       </c>
       <c r="L218">
-        <f>D218*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1300619637645801</v>
       </c>
       <c r="M218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1299633025088203</v>
       </c>
       <c r="N218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.8661255764379412E-5</v>
       </c>
       <c r="P218">
-        <f>G218*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.9517147149071749E-3</v>
       </c>
     </row>
@@ -26235,23 +26235,23 @@
         <v>5</v>
       </c>
       <c r="L219">
-        <f>D219*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1300741527222602</v>
       </c>
       <c r="M219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1299858987981199</v>
       </c>
       <c r="N219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.8253924143969192E-5</v>
       </c>
       <c r="P219">
-        <f>G219*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.6928805120718501E-3</v>
       </c>
     </row>
@@ -26290,23 +26290,23 @@
         <v>5</v>
       </c>
       <c r="L220">
-        <f>D220*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13008505592166</v>
       </c>
       <c r="M220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300061115066002</v>
       </c>
       <c r="N220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7.894441507395281E-5</v>
       </c>
       <c r="P220">
-        <f>G220*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.4567433348821051E-3</v>
       </c>
     </row>
@@ -26345,23 +26345,23 @@
         <v>5</v>
       </c>
       <c r="L221">
-        <f>D221*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13009480899168</v>
       </c>
       <c r="M221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300241920674798</v>
       </c>
       <c r="N221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7.0616924198014399E-5</v>
       </c>
       <c r="P221">
-        <f>G221*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.2413128939158251E-3</v>
       </c>
     </row>
@@ -26400,23 +26400,23 @@
         <v>5</v>
       </c>
       <c r="L222">
-        <f>D222*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13010353325424</v>
       </c>
       <c r="M222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300403653914</v>
       </c>
       <c r="N222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.31678628356664E-5</v>
       </c>
       <c r="P222">
-        <f>G222*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.0447734271256124E-3</v>
       </c>
     </row>
@@ -26455,23 +26455,23 @@
         <v>5</v>
       </c>
       <c r="L223">
-        <f>D223*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13011133723362</v>
       </c>
       <c r="M223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300548326641997</v>
       </c>
       <c r="N223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5.6504569416000001E-5</v>
       </c>
       <c r="P223">
-        <f>G223*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.8654683956098601E-3</v>
       </c>
     </row>
@@ -26510,23 +26510,23 @@
         <v>5</v>
       </c>
       <c r="L224">
-        <f>D224*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301183180063599</v>
       </c>
       <c r="M224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300677738495399</v>
       </c>
       <c r="N224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5.0544156816283404E-5</v>
       </c>
       <c r="P224">
-        <f>G224*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.7018865214390999E-3</v>
       </c>
     </row>
@@ -26565,23 +26565,23 @@
         <v>5</v>
       </c>
       <c r="L225">
-        <f>D225*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301245624088199</v>
       </c>
       <c r="M225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300793499275201</v>
       </c>
       <c r="N225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.5212481304176398E-5</v>
       </c>
       <c r="P225">
-        <f>G225*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.5526490497919101E-3</v>
       </c>
     </row>
@@ -26620,23 +26620,23 @@
         <v>5</v>
       </c>
       <c r="L226">
-        <f>D226*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301301481174</v>
       </c>
       <c r="M226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1300897048971601</v>
       </c>
       <c r="N226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.0443220234666806E-5</v>
       </c>
       <c r="P226">
-        <f>G226*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.416498128081755E-3</v>
       </c>
     </row>
@@ -26675,23 +26675,23 @@
         <v>5</v>
       </c>
       <c r="L227">
-        <f>D227*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301351446147199</v>
       </c>
       <c r="M227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13009896756768</v>
       </c>
       <c r="N227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.6177047041449399E-5</v>
       </c>
       <c r="P227">
-        <f>G227*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.2922862040998251E-3</v>
       </c>
     </row>
@@ -26730,23 +26730,23 @@
         <v>5</v>
       </c>
       <c r="L228">
-        <f>D228*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301396140540199</v>
       </c>
       <c r="M228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301072531607801</v>
       </c>
       <c r="N228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.23608932450724E-5</v>
       </c>
       <c r="P228">
-        <f>G228*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.1789663538497299E-3</v>
       </c>
     </row>
@@ -26785,23 +26785,23 @@
         <v>5</v>
       </c>
       <c r="L229">
-        <f>D229*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301436120323003</v>
       </c>
       <c r="M229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301146647439801</v>
       </c>
       <c r="N229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.8947288330074401E-5</v>
       </c>
       <c r="P229">
-        <f>G229*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.0755834575215675E-3</v>
       </c>
     </row>
@@ -26840,23 +26840,23 @@
         <v>5</v>
       </c>
       <c r="L230">
-        <f>D230*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301471882818599</v>
       </c>
       <c r="M230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13012129451264</v>
       </c>
       <c r="N230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.5893769227510401E-5</v>
       </c>
       <c r="P230">
-        <f>G230*P$1</f>
+        <f t="shared" si="18"/>
         <v>-9.812661492114576E-4</v>
       </c>
     </row>
@@ -26895,23 +26895,23 @@
         <v>5</v>
       </c>
       <c r="L231">
-        <f>D231*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13015038728896</v>
       </c>
       <c r="M231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301272249368601</v>
       </c>
       <c r="N231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.3162352104600399E-5</v>
       </c>
       <c r="P231">
-        <f>G231*P$1</f>
+        <f t="shared" si="18"/>
         <v>-8.9521947261417246E-4</v>
       </c>
     </row>
@@ -26950,23 +26950,23 @@
         <v>5</v>
       </c>
       <c r="L232">
-        <f>D232*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301532488472001</v>
       </c>
       <c r="M232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301325297873199</v>
       </c>
       <c r="N232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.0719059876416402E-5</v>
       </c>
       <c r="P232">
-        <f>G232*P$1</f>
+        <f t="shared" si="18"/>
         <v>-8.1671818067618996E-4</v>
       </c>
     </row>
@@ -27005,23 +27005,23 @@
         <v>5</v>
       </c>
       <c r="L233">
-        <f>D233*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301558085525398</v>
       </c>
       <c r="M233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301372750530003</v>
       </c>
       <c r="N233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.8533499544379481E-5</v>
       </c>
       <c r="P233">
-        <f>G233*P$1</f>
+        <f t="shared" si="18"/>
         <v>-7.4510062286759003E-4</v>
       </c>
     </row>
@@ -27060,23 +27060,23 @@
         <v>5</v>
       </c>
       <c r="L234">
-        <f>D234*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301580982461199</v>
       </c>
       <c r="M234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301415197619802</v>
       </c>
       <c r="N234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.6578484132326242E-5</v>
       </c>
       <c r="P234">
-        <f>G234*P$1</f>
+        <f t="shared" si="18"/>
         <v>-6.7976316841633752E-4</v>
       </c>
     </row>
@@ -27115,23 +27115,23 @@
         <v>5</v>
       </c>
       <c r="L235">
-        <f>D235*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301601464102</v>
       </c>
       <c r="M235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13014531671572</v>
       </c>
       <c r="N235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.4829694490482541E-5</v>
       </c>
       <c r="P235">
-        <f>G235*P$1</f>
+        <f t="shared" si="18"/>
         <v>-6.2015511858248753E-4</v>
       </c>
     </row>
@@ -27170,23 +27170,23 @@
         <v>5</v>
       </c>
       <c r="L236">
-        <f>D236*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13016197852268</v>
       </c>
       <c r="M236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301487131459003</v>
       </c>
       <c r="N236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.32653767921947E-5</v>
       </c>
       <c r="P236">
-        <f>G236*P$1</f>
+        <f t="shared" si="18"/>
         <v>-5.6577406510882502E-4</v>
       </c>
     </row>
@@ -27225,23 +27225,23 @@
         <v>5</v>
       </c>
       <c r="L237">
-        <f>D237*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13016361737388</v>
       </c>
       <c r="M237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301517513019399</v>
       </c>
       <c r="N237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.186607192394732E-5</v>
       </c>
       <c r="P237">
-        <f>G237*P$1</f>
+        <f t="shared" si="18"/>
         <v>-5.161616556259575E-4</v>
       </c>
     </row>
@@ -27280,23 +27280,23 @@
         <v>5</v>
       </c>
       <c r="L238">
-        <f>D238*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301650833500201</v>
       </c>
       <c r="M238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301544689766003</v>
       </c>
       <c r="N238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.0614373427071782E-5</v>
       </c>
       <c r="P238">
-        <f>G238*P$1</f>
+        <f t="shared" si="18"/>
         <v>-4.7089973041814003E-4</v>
       </c>
     </row>
@@ -27335,23 +27335,23 @@
         <v>5</v>
       </c>
       <c r="L239">
-        <f>D239*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13016639468696</v>
       </c>
       <c r="M239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301568999759799</v>
       </c>
       <c r="N239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.4947109669011805E-6</v>
       </c>
       <c r="P239">
-        <f>G239*P$1</f>
+        <f t="shared" si="18"/>
         <v>-4.2960679796699751E-4</v>
       </c>
     </row>
@@ -27390,23 +27390,23 @@
         <v>5</v>
       </c>
       <c r="L240">
-        <f>D240*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301675676968599</v>
       </c>
       <c r="M240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301590745402001</v>
       </c>
       <c r="N240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.4931566606651599E-6</v>
       </c>
       <c r="P240">
-        <f>G240*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.9193481953248E-4</v>
       </c>
     </row>
@@ -27445,23 +27445,23 @@
         <v>5</v>
       </c>
       <c r="L241">
-        <f>D241*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301686169712402</v>
       </c>
       <c r="M241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301610197194201</v>
       </c>
       <c r="N241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7.5972518102081604E-6</v>
       </c>
       <c r="P241">
-        <f>G241*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.5756627569938251E-4</v>
       </c>
     </row>
@@ -27500,23 +27500,23 @@
         <v>5</v>
       </c>
       <c r="L242">
-        <f>D242*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301695555623801</v>
       </c>
       <c r="M242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301627597104602</v>
       </c>
       <c r="N242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.7958519265253806E-6</v>
       </c>
       <c r="P242">
-        <f>G242*P$1</f>
+        <f t="shared" si="18"/>
         <v>-3.262114901358975E-4</v>
       </c>
     </row>
@@ -27555,23 +27555,23 @@
         <v>5</v>
       </c>
       <c r="L243">
-        <f>D243*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301703951457602</v>
       </c>
       <c r="M243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301643161576602</v>
       </c>
       <c r="N243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.0789881052275597E-6</v>
       </c>
       <c r="P243">
-        <f>G243*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.9760618807994751E-4</v>
       </c>
     </row>
@@ -27610,23 +27610,23 @@
         <v>5</v>
       </c>
       <c r="L244">
-        <f>D244*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301711461652801</v>
       </c>
       <c r="M244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301657084222603</v>
       </c>
       <c r="N244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5.4377430230365998E-6</v>
       </c>
       <c r="P244">
-        <f>G244*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.7150926886321247E-4</v>
       </c>
     </row>
@@ -27665,23 +27665,23 @@
         <v>5</v>
       </c>
       <c r="L245">
-        <f>D245*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301718179631401</v>
       </c>
       <c r="M245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13016695382314</v>
       </c>
       <c r="N245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.86413999851312E-6</v>
       </c>
       <c r="P245">
-        <f>G245*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.4770077382108024E-4</v>
       </c>
     </row>
@@ -27720,23 +27720,23 @@
         <v>5</v>
       </c>
       <c r="L246">
-        <f>D246*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13017241889606</v>
       </c>
       <c r="M246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301680678523001</v>
       </c>
       <c r="N246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.3510437719728605E-6</v>
       </c>
       <c r="P246">
-        <f>G246*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.2598003231344424E-4</v>
       </c>
     </row>
@@ -27775,23 +27775,23 @@
         <v>5</v>
       </c>
       <c r="L247">
-        <f>D247*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301729564392802</v>
       </c>
       <c r="M247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301690643675202</v>
       </c>
       <c r="N247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.8920717565063402E-6</v>
       </c>
       <c r="P247">
-        <f>G247*P$1</f>
+        <f t="shared" si="18"/>
         <v>-2.0616397040651424E-4</v>
       </c>
     </row>
@@ -27830,23 +27830,23 @@
         <v>5</v>
       </c>
       <c r="L248">
-        <f>D248*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301734372794803</v>
       </c>
       <c r="M248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301699557648401</v>
       </c>
       <c r="N248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.4815146302757803E-6</v>
       </c>
       <c r="P248">
-        <f>G248*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.8808556782268224E-4</v>
       </c>
     </row>
@@ -27885,23 +27885,23 @@
         <v>5</v>
       </c>
       <c r="L249">
-        <f>D249*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301738673980002</v>
       </c>
       <c r="M249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301707531326803</v>
       </c>
       <c r="N249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.114265326297E-6</v>
       </c>
       <c r="P249">
-        <f>G249*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.7159245018660851E-4</v>
       </c>
     </row>
@@ -27940,23 +27940,23 @@
         <v>5</v>
       </c>
       <c r="L250">
-        <f>D250*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.13017425214526</v>
       </c>
       <c r="M250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13017146638976</v>
       </c>
       <c r="N250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.7857554988074001E-6</v>
       </c>
       <c r="P250">
-        <f>G250*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.5654560476363599E-4</v>
       </c>
     </row>
@@ -27995,23 +27995,23 @@
         <v>5</v>
       </c>
       <c r="L251">
-        <f>D251*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301745963072598</v>
       </c>
       <c r="M251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.13017210440856</v>
       </c>
       <c r="N251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.4918986939175197E-6</v>
       </c>
       <c r="P251">
-        <f>G251*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.4281820874373349E-4</v>
       </c>
     </row>
@@ -28050,45 +28050,45 @@
         <v>5</v>
       </c>
       <c r="L252">
-        <f>D252*L$1</f>
+        <f t="shared" si="15"/>
         <v>2.1301749041651603</v>
       </c>
       <c r="M252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.1301726751256398</v>
       </c>
       <c r="N252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.2290395198321401E-6</v>
       </c>
       <c r="P252">
-        <f>G252*P$1</f>
+        <f t="shared" si="18"/>
         <v>-1.302945603676165E-4</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L253">
-        <f>D253*L$1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P253">
-        <f>G253*P$1</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
